--- a/output/modeled_matches_vs_ground_truths.xlsx
+++ b/output/modeled_matches_vs_ground_truths.xlsx
@@ -5036,7 +5036,7 @@
         <v>146</v>
       </c>
       <c r="C144" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D144" t="s">
         <v>128</v>
@@ -13131,7 +13131,7 @@
         <v>736</v>
       </c>
       <c r="B3">
-        <v>0.956386292834891</v>
+        <v>0.9578783151326054</v>
       </c>
     </row>
     <row r="4" spans="1:2">
